--- a/assets/data/Campo_Luna_Roja/Data_Riesgo_MANUAL_Campo_Luna_Roja.xlsx
+++ b/assets/data/Campo_Luna_Roja/Data_Riesgo_MANUAL_Campo_Luna_Roja.xlsx
@@ -48290,7 +48290,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
